--- a/relazioni/esperienza_5/codici/Risultati esperienza 4 e 5.xlsx
+++ b/relazioni/esperienza_5/codici/Risultati esperienza 4 e 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_5\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5077F3CB-1691-479F-A20F-E3EC23498667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4578BD-45ED-4D74-99DD-7E5D6E732940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{31CF8646-C98F-4C2B-9C1A-52B4A5DB6421}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{31CF8646-C98F-4C2B-9C1A-52B4A5DB6421}"/>
   </bookViews>
   <sheets>
     <sheet name="esperienza 4" sheetId="1" r:id="rId1"/>
@@ -486,13 +486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1E438B-6811-439E-958A-E3436B79DB1D}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,30 +931,30 @@
         <f xml:space="preserve"> 0.0217935427433144</f>
         <v>2.1793542743314399E-2</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -981,13 +981,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -996,11 +996,11 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1027,11 +1027,11 @@
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1072,7 +1072,8 @@
     <mergeCell ref="K12:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1080,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10FD699-26B1-4159-B7AC-056CF1974C9A}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,11 +1406,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <f xml:space="preserve"> - 0.00000058*35130.4913793103^2 + 0.04075137*35130.4913793103 + 55.1579</f>
         <v>770.96572624004318</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>545.15509308674586</v>
       </c>
       <c r="C17" s="1">
@@ -1442,7 +1443,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1456,6 +1458,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100150C6E3A01A79A4BB6F66956A6120D17" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="df8b60f2dc3be3d33ea09aeb8f6dcdfa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21343963-c43f-42a4-b0bc-b203e64410f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20a5d5cd272d745c84963488382a52fd" ns3:_="">
     <xsd:import namespace="21343963-c43f-42a4-b0bc-b203e64410f4"/>
@@ -1637,14 +1647,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F38B86-CF41-405E-95A3-743B72CCC6F0}">
   <ds:schemaRefs>
@@ -1654,6 +1656,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C994D1-6185-4796-B82F-887380487AD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D77DFC2-BE9E-4BFD-A27E-8B1019793658}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1669,20 +1687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C994D1-6185-4796-B82F-887380487AD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>